--- a/data/excelcases.xlsx
+++ b/data/excelcases.xlsx
@@ -53,50 +53,13 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -107,20 +70,6 @@
       <b val="1"/>
       <color theme="3"/>
       <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,8 +99,22 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -174,15 +137,29 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -194,6 +171,29 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -201,6 +201,138 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -210,7 +342,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,168 +385,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,32 +402,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -451,17 +425,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,6 +461,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -495,151 +484,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="10" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="6" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="19" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="10" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="15" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="21" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="21" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="14" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="9" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="21" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="21" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="32" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="31" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="30" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="12" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1011,8 +1011,8 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{"code":0,"msg":"OK","data":{"id":2057881,"reg_name":"yh","mobile_phone":"13857963024"},"copyright":"Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
+          <t>{"code":0,"msg":"OK","data":{"id":2058000,"reg_name":"yh","mobile_phone":"13863409521"},"copyright":"Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
         </is>
       </c>
     </row>

--- a/data/excelcases.xlsx
+++ b/data/excelcases.xlsx
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{"code":0,"msg":"OK","data":{"id":2058000,"reg_name":"yh","mobile_phone":"13863409521"},"copyright":"Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
+          <t>{"code":0,"msg":"OK","data":{"id":2058281,"reg_name":"yh","mobile_phone":"13853082946"},"copyright":"Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
         </is>
       </c>
     </row>
